--- a/data/pca/factorExposure/factorExposure_2016-08-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01080062995288018</v>
+        <v>0.01314194566731575</v>
       </c>
       <c r="C2">
-        <v>-0.05468467945959304</v>
+        <v>0.04274967947665318</v>
       </c>
       <c r="D2">
-        <v>-0.03843919740844112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06222317792140619</v>
+      </c>
+      <c r="E2">
+        <v>-0.07049214758145898</v>
+      </c>
+      <c r="F2">
+        <v>0.06656280059797197</v>
+      </c>
+      <c r="G2">
+        <v>0.03398677915407582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05541509947155421</v>
+        <v>0.02908939662916931</v>
       </c>
       <c r="C3">
-        <v>-0.09388277157799327</v>
+        <v>0.07876837057103668</v>
       </c>
       <c r="D3">
-        <v>-0.1026904104901491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0903355460240093</v>
+      </c>
+      <c r="E3">
+        <v>-0.07100722207001153</v>
+      </c>
+      <c r="F3">
+        <v>-0.007072009730636826</v>
+      </c>
+      <c r="G3">
+        <v>-0.04057557103292488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06640492679607977</v>
+        <v>0.05763074281490442</v>
       </c>
       <c r="C4">
-        <v>-0.05875158243698354</v>
+        <v>0.06635896721634778</v>
       </c>
       <c r="D4">
-        <v>-0.02806487473794565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05856414631507824</v>
+      </c>
+      <c r="E4">
+        <v>-0.07117484054735741</v>
+      </c>
+      <c r="F4">
+        <v>0.0756968718755182</v>
+      </c>
+      <c r="G4">
+        <v>-0.04060291721581159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04096665045791592</v>
+        <v>0.03527263946263186</v>
       </c>
       <c r="C6">
-        <v>-0.0372508455045407</v>
+        <v>0.03201523907541229</v>
       </c>
       <c r="D6">
-        <v>-0.03103735886102969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06273737172862172</v>
+      </c>
+      <c r="E6">
+        <v>-0.0753496464766365</v>
+      </c>
+      <c r="F6">
+        <v>0.05661881941077043</v>
+      </c>
+      <c r="G6">
+        <v>-0.02377153161229696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02249974928876733</v>
+        <v>0.01837341846332425</v>
       </c>
       <c r="C7">
-        <v>-0.04344902534925838</v>
+        <v>0.03901293429369397</v>
       </c>
       <c r="D7">
-        <v>0.006788109135377495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03660528549878846</v>
+      </c>
+      <c r="E7">
+        <v>-0.05010720979948002</v>
+      </c>
+      <c r="F7">
+        <v>0.0988630206374526</v>
+      </c>
+      <c r="G7">
+        <v>-0.01048844476988533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003370643552423564</v>
+        <v>0.003112633871545837</v>
       </c>
       <c r="C8">
-        <v>-0.02754289994781228</v>
+        <v>0.02904373283246027</v>
       </c>
       <c r="D8">
-        <v>-0.02973985143359833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03051140422230156</v>
+      </c>
+      <c r="E8">
+        <v>-0.05110651078211702</v>
+      </c>
+      <c r="F8">
+        <v>0.03670337494239976</v>
+      </c>
+      <c r="G8">
+        <v>-0.01037552642703889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03626527372018015</v>
+        <v>0.03629047261913951</v>
       </c>
       <c r="C9">
-        <v>-0.04347279483082459</v>
+        <v>0.05246160574984605</v>
       </c>
       <c r="D9">
-        <v>-0.01462869334695014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04241571857571209</v>
+      </c>
+      <c r="E9">
+        <v>-0.05888163677875253</v>
+      </c>
+      <c r="F9">
+        <v>0.08342110189039027</v>
+      </c>
+      <c r="G9">
+        <v>-0.02527140192113607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0719675736886578</v>
+        <v>0.1003441348265265</v>
       </c>
       <c r="C10">
-        <v>0.1991350192540327</v>
+        <v>-0.1955862976243508</v>
       </c>
       <c r="D10">
-        <v>0.01261225183667703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.006353382688390722</v>
+      </c>
+      <c r="E10">
+        <v>-0.04351246068532037</v>
+      </c>
+      <c r="F10">
+        <v>0.03854021800733847</v>
+      </c>
+      <c r="G10">
+        <v>-0.01013140480110378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04216210357054433</v>
+        <v>0.03625002724359334</v>
       </c>
       <c r="C11">
-        <v>-0.05430270861671573</v>
+        <v>0.05176556005932934</v>
       </c>
       <c r="D11">
-        <v>-0.0129243643478722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03353851033843549</v>
+      </c>
+      <c r="E11">
+        <v>-0.01731724690186374</v>
+      </c>
+      <c r="F11">
+        <v>0.06431229576668618</v>
+      </c>
+      <c r="G11">
+        <v>-0.01674808287383798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0417716937541611</v>
+        <v>0.03703145289440976</v>
       </c>
       <c r="C12">
-        <v>-0.04802285626192124</v>
+        <v>0.04760986142169418</v>
       </c>
       <c r="D12">
-        <v>-0.001039818049310571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02503372590415464</v>
+      </c>
+      <c r="E12">
+        <v>-0.02478708348216019</v>
+      </c>
+      <c r="F12">
+        <v>0.06600325030303625</v>
+      </c>
+      <c r="G12">
+        <v>-0.01366379920486662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01669279199546006</v>
+        <v>0.01230204915201803</v>
       </c>
       <c r="C13">
-        <v>-0.05090002927745228</v>
+        <v>0.04404011545414788</v>
       </c>
       <c r="D13">
-        <v>-0.02202354938373845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05947269247285666</v>
+      </c>
+      <c r="E13">
+        <v>-0.08513922814884516</v>
+      </c>
+      <c r="F13">
+        <v>0.09702172913660742</v>
+      </c>
+      <c r="G13">
+        <v>-0.0221064523853159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007671623374492369</v>
+        <v>0.004621378013411149</v>
       </c>
       <c r="C14">
-        <v>-0.03533611307975179</v>
+        <v>0.03229213664499918</v>
       </c>
       <c r="D14">
-        <v>0.01390939037700175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02522459136152217</v>
+      </c>
+      <c r="E14">
+        <v>-0.03986832217988661</v>
+      </c>
+      <c r="F14">
+        <v>0.09502527760828826</v>
+      </c>
+      <c r="G14">
+        <v>0.004331619607327548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0006953766901957181</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00559506440013552</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006472447966329751</v>
+      </c>
+      <c r="E15">
+        <v>-0.00191247632308306</v>
+      </c>
+      <c r="F15">
+        <v>0.004247960761198084</v>
+      </c>
+      <c r="G15">
+        <v>-0.0003955704076905805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03867151286232078</v>
+        <v>0.03372921289150572</v>
       </c>
       <c r="C16">
-        <v>-0.04625874220453483</v>
+        <v>0.04569173318502173</v>
       </c>
       <c r="D16">
-        <v>-0.006635709126100753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0266785939159552</v>
+      </c>
+      <c r="E16">
+        <v>-0.0317523222393205</v>
+      </c>
+      <c r="F16">
+        <v>0.06679528043976506</v>
+      </c>
+      <c r="G16">
+        <v>-0.003064312032007971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02523723540761584</v>
+        <v>0.01621696177877257</v>
       </c>
       <c r="C19">
-        <v>-0.06365808573985811</v>
+        <v>0.05090759235055467</v>
       </c>
       <c r="D19">
-        <v>-0.07654502232280666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08954462462579318</v>
+      </c>
+      <c r="E19">
+        <v>-0.1008325660041732</v>
+      </c>
+      <c r="F19">
+        <v>0.0736271641546095</v>
+      </c>
+      <c r="G19">
+        <v>0.02029354722130807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01814479071790497</v>
+        <v>0.01330836561983114</v>
       </c>
       <c r="C20">
-        <v>-0.04407668982814229</v>
+        <v>0.04100127462872778</v>
       </c>
       <c r="D20">
-        <v>-0.01563675728465687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0362616148334664</v>
+      </c>
+      <c r="E20">
+        <v>-0.07021613174750521</v>
+      </c>
+      <c r="F20">
+        <v>0.07811323872218316</v>
+      </c>
+      <c r="G20">
+        <v>-0.007057362014697249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01303339300320508</v>
+        <v>0.009029823779847594</v>
       </c>
       <c r="C21">
-        <v>-0.0486100057593107</v>
+        <v>0.04557778377463812</v>
       </c>
       <c r="D21">
-        <v>-0.03756363334131112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06587549571378731</v>
+      </c>
+      <c r="E21">
+        <v>-0.09924082999948476</v>
+      </c>
+      <c r="F21">
+        <v>0.1203476885842914</v>
+      </c>
+      <c r="G21">
+        <v>-0.01122444772810161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001968773358567355</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02365591206602143</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0360310521130322</v>
+      </c>
+      <c r="E22">
+        <v>-0.02892093840159487</v>
+      </c>
+      <c r="F22">
+        <v>0.01428491953933489</v>
+      </c>
+      <c r="G22">
+        <v>-0.03947262353191693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002037316460194634</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02378245377794043</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03568626169400185</v>
+      </c>
+      <c r="E23">
+        <v>-0.02918736184445612</v>
+      </c>
+      <c r="F23">
+        <v>0.01408561401696737</v>
+      </c>
+      <c r="G23">
+        <v>-0.0396612429716752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03428592596148596</v>
+        <v>0.03342048991561117</v>
       </c>
       <c r="C24">
-        <v>-0.05020264591538252</v>
+        <v>0.05368606421559172</v>
       </c>
       <c r="D24">
-        <v>-0.005987706085088616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02587739395163247</v>
+      </c>
+      <c r="E24">
+        <v>-0.02900769611293061</v>
+      </c>
+      <c r="F24">
+        <v>0.07522958697919939</v>
+      </c>
+      <c r="G24">
+        <v>-0.01100826616941033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04836103991465119</v>
+        <v>0.04374508351650662</v>
       </c>
       <c r="C25">
-        <v>-0.0599915762827878</v>
+        <v>0.05716418517418297</v>
       </c>
       <c r="D25">
-        <v>0.002728471629018284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02439837872347727</v>
+      </c>
+      <c r="E25">
+        <v>-0.02372087281354879</v>
+      </c>
+      <c r="F25">
+        <v>0.07708743444554327</v>
+      </c>
+      <c r="G25">
+        <v>-0.02804792926389052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01599456271204205</v>
+        <v>0.01374649782137212</v>
       </c>
       <c r="C26">
-        <v>-0.01551475018820747</v>
+        <v>0.01706057234144434</v>
       </c>
       <c r="D26">
-        <v>0.00174895245567044</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02369795278073173</v>
+      </c>
+      <c r="E26">
+        <v>-0.04035243954834532</v>
+      </c>
+      <c r="F26">
+        <v>0.06770550966677984</v>
+      </c>
+      <c r="G26">
+        <v>0.01259914194688835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08390998755779086</v>
+        <v>0.1351022622735165</v>
       </c>
       <c r="C28">
-        <v>0.2352348292414756</v>
+        <v>-0.2457440395479998</v>
       </c>
       <c r="D28">
-        <v>0.0117624850530721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02143907810212148</v>
+      </c>
+      <c r="E28">
+        <v>-0.04633443438190852</v>
+      </c>
+      <c r="F28">
+        <v>0.05733782181793642</v>
+      </c>
+      <c r="G28">
+        <v>-0.02402705853428987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009223577925547262</v>
+        <v>0.005725554495062495</v>
       </c>
       <c r="C29">
-        <v>-0.02823899168120996</v>
+        <v>0.02759351202614329</v>
       </c>
       <c r="D29">
-        <v>0.01908644782897412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0191507394808226</v>
+      </c>
+      <c r="E29">
+        <v>-0.03998782901750968</v>
+      </c>
+      <c r="F29">
+        <v>0.08849248404334949</v>
+      </c>
+      <c r="G29">
+        <v>-0.008032940587518651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.05247852370121592</v>
+        <v>0.04162026061433248</v>
       </c>
       <c r="C30">
-        <v>-0.05746823955223959</v>
+        <v>0.06338369910313188</v>
       </c>
       <c r="D30">
-        <v>-0.07065104569851634</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1063518174981103</v>
+      </c>
+      <c r="E30">
+        <v>-0.06530842721535741</v>
+      </c>
+      <c r="F30">
+        <v>0.09162327890922212</v>
+      </c>
+      <c r="G30">
+        <v>0.01126137239772546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05450965699604553</v>
+        <v>0.0547031837701596</v>
       </c>
       <c r="C31">
-        <v>-0.03577793471208434</v>
+        <v>0.05616108278099252</v>
       </c>
       <c r="D31">
-        <v>0.0304234979709241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01311407220479279</v>
+      </c>
+      <c r="E31">
+        <v>-0.06011766465897414</v>
+      </c>
+      <c r="F31">
+        <v>0.07078861270940481</v>
+      </c>
+      <c r="G31">
+        <v>-0.04963130373122946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002059373179766235</v>
+        <v>0.004908130469407</v>
       </c>
       <c r="C32">
-        <v>-0.04441459966117916</v>
+        <v>0.03470543076820968</v>
       </c>
       <c r="D32">
-        <v>-0.04152999567755964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05090799587784142</v>
+      </c>
+      <c r="E32">
+        <v>-0.04172966059767511</v>
+      </c>
+      <c r="F32">
+        <v>0.06395991583975959</v>
+      </c>
+      <c r="G32">
+        <v>0.00898665852407304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02877746413948112</v>
+        <v>0.02434347001948656</v>
       </c>
       <c r="C33">
-        <v>-0.06074025389791014</v>
+        <v>0.05493407493062846</v>
       </c>
       <c r="D33">
-        <v>-0.04279686121391034</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07643024416017073</v>
+      </c>
+      <c r="E33">
+        <v>-0.07354578641549336</v>
+      </c>
+      <c r="F33">
+        <v>0.1168585238063642</v>
+      </c>
+      <c r="G33">
+        <v>-0.02434875892529176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04625474346078765</v>
+        <v>0.04082819718091699</v>
       </c>
       <c r="C34">
-        <v>-0.06502761904349427</v>
+        <v>0.06416942832350606</v>
       </c>
       <c r="D34">
-        <v>-0.008886370886385626</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03359268350964879</v>
+      </c>
+      <c r="E34">
+        <v>-0.004175607792555833</v>
+      </c>
+      <c r="F34">
+        <v>0.07782324878889341</v>
+      </c>
+      <c r="G34">
+        <v>-0.01300344288521291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01344904077004358</v>
+        <v>0.01300122864285686</v>
       </c>
       <c r="C36">
-        <v>-0.01695106048722026</v>
+        <v>0.01304763975644895</v>
       </c>
       <c r="D36">
-        <v>0.00375477534013601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02529535450795455</v>
+      </c>
+      <c r="E36">
+        <v>-0.04721836046222374</v>
+      </c>
+      <c r="F36">
+        <v>0.07406806978262999</v>
+      </c>
+      <c r="G36">
+        <v>-0.01124322119819118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03052782972594028</v>
+        <v>0.02399956344260886</v>
       </c>
       <c r="C38">
-        <v>-0.02827566173273531</v>
+        <v>0.02498064709369959</v>
       </c>
       <c r="D38">
-        <v>0.006643650360991934</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0245541349989669</v>
+      </c>
+      <c r="E38">
+        <v>-0.0455477722790135</v>
+      </c>
+      <c r="F38">
+        <v>0.06221661571541788</v>
+      </c>
+      <c r="G38">
+        <v>-0.006854711221583043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04522287523626167</v>
+        <v>0.03926686538957568</v>
       </c>
       <c r="C39">
-        <v>-0.07240506626206193</v>
+        <v>0.06852816497109906</v>
       </c>
       <c r="D39">
-        <v>-0.02511957849710374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05234709890076387</v>
+      </c>
+      <c r="E39">
+        <v>-0.03438622582097787</v>
+      </c>
+      <c r="F39">
+        <v>0.08713592061826392</v>
+      </c>
+      <c r="G39">
+        <v>0.01181172165310142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01559196925376084</v>
+        <v>0.01502004313330427</v>
       </c>
       <c r="C40">
-        <v>-0.03937491871683352</v>
+        <v>0.03982050858874206</v>
       </c>
       <c r="D40">
-        <v>-0.03407690617468834</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03586214660789225</v>
+      </c>
+      <c r="E40">
+        <v>-0.08621153017899785</v>
+      </c>
+      <c r="F40">
+        <v>0.06897887352420971</v>
+      </c>
+      <c r="G40">
+        <v>-0.04503021400810234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01735846718408024</v>
+        <v>0.01775203403639987</v>
       </c>
       <c r="C41">
-        <v>-0.00870110671786746</v>
+        <v>0.007422720291568</v>
       </c>
       <c r="D41">
-        <v>0.007172731468374674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01281285585926244</v>
+      </c>
+      <c r="E41">
+        <v>-0.05019257696349411</v>
+      </c>
+      <c r="F41">
+        <v>0.0631624810888355</v>
+      </c>
+      <c r="G41">
+        <v>-0.004529424601748135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0001546496987706938</v>
+        <v>-3.198534185934254e-05</v>
       </c>
       <c r="C42">
-        <v>-0.003159232374495008</v>
+        <v>0.001874995023707332</v>
       </c>
       <c r="D42">
-        <v>0.001823838832760483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0009714643647059567</v>
+      </c>
+      <c r="E42">
+        <v>0.003508408574930383</v>
+      </c>
+      <c r="F42">
+        <v>-0.002041978673163415</v>
+      </c>
+      <c r="G42">
+        <v>-0.002577918371836748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03663022960190319</v>
+        <v>0.02859372207483795</v>
       </c>
       <c r="C43">
-        <v>-0.02477763448467668</v>
+        <v>0.02203070265683647</v>
       </c>
       <c r="D43">
-        <v>-0.01454532442708859</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03835521937446505</v>
+      </c>
+      <c r="E43">
+        <v>-0.06125323533402154</v>
+      </c>
+      <c r="F43">
+        <v>0.07360262696541545</v>
+      </c>
+      <c r="G43">
+        <v>-0.02470601408537684</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01861764410201733</v>
+        <v>0.01385222055597607</v>
       </c>
       <c r="C44">
-        <v>-0.05860512786706248</v>
+        <v>0.05295607913291166</v>
       </c>
       <c r="D44">
-        <v>-0.0163699389825151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03826000205813559</v>
+      </c>
+      <c r="E44">
+        <v>-0.07705245382910299</v>
+      </c>
+      <c r="F44">
+        <v>0.07425987613824014</v>
+      </c>
+      <c r="G44">
+        <v>0.001745813177589742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005682508043771852</v>
+        <v>0.007518593785553413</v>
       </c>
       <c r="C46">
-        <v>-0.02323459475184238</v>
+        <v>0.02626637858354983</v>
       </c>
       <c r="D46">
-        <v>0.02573129272658883</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009283168095529338</v>
+      </c>
+      <c r="E46">
+        <v>-0.04751400779853848</v>
+      </c>
+      <c r="F46">
+        <v>0.0990345677613203</v>
+      </c>
+      <c r="G46">
+        <v>-0.002980367068210451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08460403887005508</v>
+        <v>0.08678993785917848</v>
       </c>
       <c r="C47">
-        <v>-0.06463397930324061</v>
+        <v>0.08011313202814421</v>
       </c>
       <c r="D47">
-        <v>0.02937867181400183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01996925796239486</v>
+      </c>
+      <c r="E47">
+        <v>-0.06335019338253811</v>
+      </c>
+      <c r="F47">
+        <v>0.07123570770591817</v>
+      </c>
+      <c r="G47">
+        <v>-0.05340216741442767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01885963328582546</v>
+        <v>0.01570163682849598</v>
       </c>
       <c r="C48">
-        <v>-0.01336673423349239</v>
+        <v>0.01721127919719165</v>
       </c>
       <c r="D48">
-        <v>0.01641982562991807</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01431286548920215</v>
+      </c>
+      <c r="E48">
+        <v>-0.05845108594149551</v>
+      </c>
+      <c r="F48">
+        <v>0.08857085300490201</v>
+      </c>
+      <c r="G48">
+        <v>-0.01122632824427025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08303874643497959</v>
+        <v>0.07068925998678256</v>
       </c>
       <c r="C50">
-        <v>-0.06960152293239365</v>
+        <v>0.07249063021387279</v>
       </c>
       <c r="D50">
-        <v>0.03592032774984716</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.008156397493716388</v>
+      </c>
+      <c r="E50">
+        <v>-0.06475196334098836</v>
+      </c>
+      <c r="F50">
+        <v>0.05767663730814993</v>
+      </c>
+      <c r="G50">
+        <v>-0.07400989554130423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01717446275432988</v>
+        <v>0.01053344185891368</v>
       </c>
       <c r="C51">
-        <v>-0.04741816713546045</v>
+        <v>0.03421497989687393</v>
       </c>
       <c r="D51">
-        <v>-0.02084051808354466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04827703455069862</v>
+      </c>
+      <c r="E51">
+        <v>-0.03846360177106233</v>
+      </c>
+      <c r="F51">
+        <v>0.07717153774357839</v>
+      </c>
+      <c r="G51">
+        <v>0.01742857940365768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08457594325273081</v>
+        <v>0.09356253699656288</v>
       </c>
       <c r="C53">
-        <v>-0.07038116296394149</v>
+        <v>0.08643048905957069</v>
       </c>
       <c r="D53">
-        <v>0.04055545196449298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04354337208980488</v>
+      </c>
+      <c r="E53">
+        <v>-0.05890530884476761</v>
+      </c>
+      <c r="F53">
+        <v>0.08137089902716761</v>
+      </c>
+      <c r="G53">
+        <v>-0.06547508405808132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03184064944568391</v>
+        <v>0.02752585407886731</v>
       </c>
       <c r="C54">
-        <v>-0.02326367696413568</v>
+        <v>0.02576954139272277</v>
       </c>
       <c r="D54">
-        <v>0.00564465659225939</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02892180881975132</v>
+      </c>
+      <c r="E54">
+        <v>-0.04882371687833905</v>
+      </c>
+      <c r="F54">
+        <v>0.09795379900663849</v>
+      </c>
+      <c r="G54">
+        <v>-0.00990499463429168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07715996606172805</v>
+        <v>0.08485301903918503</v>
       </c>
       <c r="C55">
-        <v>-0.05451660600262605</v>
+        <v>0.06989100788670412</v>
       </c>
       <c r="D55">
-        <v>0.04790396243778931</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04999575213697582</v>
+      </c>
+      <c r="E55">
+        <v>-0.0464865345937009</v>
+      </c>
+      <c r="F55">
+        <v>0.05825941313821962</v>
+      </c>
+      <c r="G55">
+        <v>-0.05319222465313642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1488844399443588</v>
+        <v>0.1465391638171874</v>
       </c>
       <c r="C56">
-        <v>-0.08841295302848803</v>
+        <v>0.1044934360777523</v>
       </c>
       <c r="D56">
-        <v>0.05102729456863475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05429093210904802</v>
+      </c>
+      <c r="E56">
+        <v>-0.04902666398425653</v>
+      </c>
+      <c r="F56">
+        <v>0.04094452835158145</v>
+      </c>
+      <c r="G56">
+        <v>-0.0601561160932501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0009998611117208365</v>
+        <v>0.0003267176776262424</v>
       </c>
       <c r="C57">
-        <v>-0.001038277731809003</v>
+        <v>0.0008392500627689027</v>
       </c>
       <c r="D57">
-        <v>-0.01673297538163461</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0122066251602235</v>
+      </c>
+      <c r="E57">
+        <v>-0.008945433692637041</v>
+      </c>
+      <c r="F57">
+        <v>0.00578528043377046</v>
+      </c>
+      <c r="G57">
+        <v>-0.003123906063884245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06413220759372874</v>
+        <v>0.02795869727709249</v>
       </c>
       <c r="C58">
-        <v>-0.0152831964553115</v>
+        <v>0.03505238861235308</v>
       </c>
       <c r="D58">
-        <v>-0.730801117425829</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4064726536014147</v>
+      </c>
+      <c r="E58">
+        <v>-0.6616407619840341</v>
+      </c>
+      <c r="F58">
+        <v>-0.5480089203307809</v>
+      </c>
+      <c r="G58">
+        <v>0.07141300174968722</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1284114987195362</v>
+        <v>0.1454236924385234</v>
       </c>
       <c r="C59">
-        <v>0.2025958008232352</v>
+        <v>-0.1862848310169873</v>
       </c>
       <c r="D59">
-        <v>-0.01805257564283749</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02981413348803736</v>
+      </c>
+      <c r="E59">
+        <v>-0.02800145813143807</v>
+      </c>
+      <c r="F59">
+        <v>0.0210323801154962</v>
+      </c>
+      <c r="G59">
+        <v>0.02826095796614907</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3129446430018861</v>
+        <v>0.2834126850920121</v>
       </c>
       <c r="C60">
-        <v>-0.08008910826518498</v>
+        <v>0.0978430467257608</v>
       </c>
       <c r="D60">
-        <v>-0.1202970027536239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2249735886588798</v>
+      </c>
+      <c r="E60">
+        <v>0.2653797514311717</v>
+      </c>
+      <c r="F60">
+        <v>-0.08809468358622198</v>
+      </c>
+      <c r="G60">
+        <v>-0.04278883678793381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04431572798472814</v>
+        <v>0.04074268129855657</v>
       </c>
       <c r="C61">
-        <v>-0.063068793454484</v>
+        <v>0.06268472620717862</v>
       </c>
       <c r="D61">
-        <v>-0.01328022680188669</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04478317670160682</v>
+      </c>
+      <c r="E61">
+        <v>-0.03832610613002986</v>
+      </c>
+      <c r="F61">
+        <v>0.07687229119198563</v>
+      </c>
+      <c r="G61">
+        <v>-0.01400776929276245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01636302653639111</v>
+        <v>0.01493665452416208</v>
       </c>
       <c r="C63">
-        <v>-0.03499328917997205</v>
+        <v>0.03239619650588171</v>
       </c>
       <c r="D63">
-        <v>0.008119652238796692</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02103993134746656</v>
+      </c>
+      <c r="E63">
+        <v>-0.04941655637900189</v>
+      </c>
+      <c r="F63">
+        <v>0.06937319274332175</v>
+      </c>
+      <c r="G63">
+        <v>-0.03015830398934877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05067724422558281</v>
+        <v>0.05563561437497893</v>
       </c>
       <c r="C64">
-        <v>-0.03983235553631518</v>
+        <v>0.0555165329830116</v>
       </c>
       <c r="D64">
-        <v>0.00821917075336346</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005437681163314907</v>
+      </c>
+      <c r="E64">
+        <v>-0.03122866116670389</v>
+      </c>
+      <c r="F64">
+        <v>0.08200773902093632</v>
+      </c>
+      <c r="G64">
+        <v>-0.01206610886916042</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09089509572649145</v>
+        <v>0.06909240009622632</v>
       </c>
       <c r="C65">
-        <v>-0.02701594847776376</v>
+        <v>0.03270022966252869</v>
       </c>
       <c r="D65">
-        <v>-0.04729431070055824</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08447468354339221</v>
+      </c>
+      <c r="E65">
+        <v>-0.04461393584400739</v>
+      </c>
+      <c r="F65">
+        <v>0.007751922128686001</v>
+      </c>
+      <c r="G65">
+        <v>-0.00154391426958895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06548410416095167</v>
+        <v>0.05200228581744858</v>
       </c>
       <c r="C66">
-        <v>-0.1006838443569835</v>
+        <v>0.09047411664430338</v>
       </c>
       <c r="D66">
-        <v>-0.04321256774807233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07990945746196804</v>
+      </c>
+      <c r="E66">
+        <v>-0.04224277569219535</v>
+      </c>
+      <c r="F66">
+        <v>0.08898772619294389</v>
+      </c>
+      <c r="G66">
+        <v>-0.005826787671559588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05259145510269501</v>
+        <v>0.04603976667609002</v>
       </c>
       <c r="C67">
-        <v>-0.03279840396871984</v>
+        <v>0.03160017459500716</v>
       </c>
       <c r="D67">
-        <v>0.008881660585177932</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01163971436834718</v>
+      </c>
+      <c r="E67">
+        <v>-0.02521094580269612</v>
+      </c>
+      <c r="F67">
+        <v>0.05105719348488248</v>
+      </c>
+      <c r="G67">
+        <v>-0.01357658146387537</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1125681897754825</v>
+        <v>0.1508410269311708</v>
       </c>
       <c r="C68">
-        <v>0.2896321133017198</v>
+        <v>-0.2507493662679481</v>
       </c>
       <c r="D68">
-        <v>0.01248737470265091</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02093361096357469</v>
+      </c>
+      <c r="E68">
+        <v>-0.04193407185885804</v>
+      </c>
+      <c r="F68">
+        <v>0.01462589633735519</v>
+      </c>
+      <c r="G68">
+        <v>-0.01118607690843163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09133274404550415</v>
+        <v>0.08666593603304</v>
       </c>
       <c r="C69">
-        <v>-0.06341223519757894</v>
+        <v>0.08651945447861149</v>
       </c>
       <c r="D69">
-        <v>0.0416671784290549</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01084812348893541</v>
+      </c>
+      <c r="E69">
+        <v>-0.04773039574222483</v>
+      </c>
+      <c r="F69">
+        <v>0.08958224191283096</v>
+      </c>
+      <c r="G69">
+        <v>-0.0310101418883629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1080568060529145</v>
+        <v>0.1429096868786827</v>
       </c>
       <c r="C71">
-        <v>0.2511038920819826</v>
+        <v>-0.2338726844741765</v>
       </c>
       <c r="D71">
-        <v>-0.01576238451925996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.009963419418808697</v>
+      </c>
+      <c r="E71">
+        <v>-0.06631325157897762</v>
+      </c>
+      <c r="F71">
+        <v>0.05431728022661058</v>
+      </c>
+      <c r="G71">
+        <v>-0.03600183648447693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09088844087701393</v>
+        <v>0.09705290687299438</v>
       </c>
       <c r="C72">
-        <v>-0.04559435248412502</v>
+        <v>0.05513726761301008</v>
       </c>
       <c r="D72">
-        <v>0.0005836446155090599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02416329557925451</v>
+      </c>
+      <c r="E72">
+        <v>-0.02509047847365004</v>
+      </c>
+      <c r="F72">
+        <v>0.07255247204882578</v>
+      </c>
+      <c r="G72">
+        <v>-0.02960996456189189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4204676538311871</v>
+        <v>0.3475068288239429</v>
       </c>
       <c r="C73">
-        <v>-0.05907719496315864</v>
+        <v>0.0819037443740674</v>
       </c>
       <c r="D73">
-        <v>-0.324330823720637</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4734281084206746</v>
+      </c>
+      <c r="E73">
+        <v>0.4717077359483656</v>
+      </c>
+      <c r="F73">
+        <v>-0.2460148148512383</v>
+      </c>
+      <c r="G73">
+        <v>-0.09536883920128054</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1126093416657484</v>
+        <v>0.1106890998385477</v>
       </c>
       <c r="C74">
-        <v>-0.09634279340883196</v>
+        <v>0.09907865886882226</v>
       </c>
       <c r="D74">
-        <v>0.02707623034567305</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03318114125391507</v>
+      </c>
+      <c r="E74">
+        <v>-0.06448670105570106</v>
+      </c>
+      <c r="F74">
+        <v>0.04612154660873732</v>
+      </c>
+      <c r="G74">
+        <v>-0.0756803528843918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2534633131271476</v>
+        <v>0.2564505150143582</v>
       </c>
       <c r="C75">
-        <v>-0.09937066206648304</v>
+        <v>0.1328369050549663</v>
       </c>
       <c r="D75">
-        <v>0.09226505252270739</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1336649394404712</v>
+      </c>
+      <c r="E75">
+        <v>-0.06731761619494377</v>
+      </c>
+      <c r="F75">
+        <v>0.006756801727096091</v>
+      </c>
+      <c r="G75">
+        <v>-0.07625688020321744</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1165662910991765</v>
+        <v>0.1279941310508321</v>
       </c>
       <c r="C76">
-        <v>-0.08705462087391432</v>
+        <v>0.1005988506885313</v>
       </c>
       <c r="D76">
-        <v>0.04584303740768625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06079344759466817</v>
+      </c>
+      <c r="E76">
+        <v>-0.07094570110407573</v>
+      </c>
+      <c r="F76">
+        <v>0.06166986695609757</v>
+      </c>
+      <c r="G76">
+        <v>-0.06400490174081153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07848270253500521</v>
+        <v>0.06258956760791667</v>
       </c>
       <c r="C77">
-        <v>-0.05487090911979173</v>
+        <v>0.07163713522013343</v>
       </c>
       <c r="D77">
-        <v>-0.06430460183100106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06486576486552123</v>
+      </c>
+      <c r="E77">
+        <v>-0.09447160491485218</v>
+      </c>
+      <c r="F77">
+        <v>0.1108846786417484</v>
+      </c>
+      <c r="G77">
+        <v>0.132592258738236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04997806749007699</v>
+        <v>0.04343163660007746</v>
       </c>
       <c r="C78">
-        <v>-0.04166348162230379</v>
+        <v>0.05702950246934131</v>
       </c>
       <c r="D78">
-        <v>-0.02715336301596816</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07091920763313622</v>
+      </c>
+      <c r="E78">
+        <v>-0.04768527793892576</v>
+      </c>
+      <c r="F78">
+        <v>0.095311260041335</v>
+      </c>
+      <c r="G78">
+        <v>-0.00643859090735991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02552786387613212</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0386586015726909</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06279285813131386</v>
+      </c>
+      <c r="E79">
+        <v>-0.05314511791183743</v>
+      </c>
+      <c r="F79">
+        <v>0.03466598255049839</v>
+      </c>
+      <c r="G79">
+        <v>-0.06785444849065921</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04728296685083379</v>
+        <v>0.03459377412845773</v>
       </c>
       <c r="C80">
-        <v>-0.05050244254900403</v>
+        <v>0.05517014255652172</v>
       </c>
       <c r="D80">
-        <v>-0.03313414791158348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04468002384403016</v>
+      </c>
+      <c r="E80">
+        <v>-0.01596288391349909</v>
+      </c>
+      <c r="F80">
+        <v>0.03470881384838496</v>
+      </c>
+      <c r="G80">
+        <v>0.04586392534595066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.143731120663453</v>
+        <v>0.1403710264366677</v>
       </c>
       <c r="C81">
-        <v>-0.0694897232582201</v>
+        <v>0.09584441613934477</v>
       </c>
       <c r="D81">
-        <v>0.06431157042544795</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1019485264354059</v>
+      </c>
+      <c r="E81">
+        <v>-0.07957566066893587</v>
+      </c>
+      <c r="F81">
+        <v>0.005380453470685919</v>
+      </c>
+      <c r="G81">
+        <v>-0.05537310832537513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1600833450110221</v>
+        <v>0.2015320070913262</v>
       </c>
       <c r="C82">
-        <v>-0.06120848286770393</v>
+        <v>0.1382769655362112</v>
       </c>
       <c r="D82">
-        <v>0.1563394508065306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2366839554519889</v>
+      </c>
+      <c r="E82">
+        <v>-0.0004701632401604223</v>
+      </c>
+      <c r="F82">
+        <v>0.09382191234514356</v>
+      </c>
+      <c r="G82">
+        <v>-0.04331999393163857</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03746159581899129</v>
+        <v>0.02796856283053306</v>
       </c>
       <c r="C83">
-        <v>-0.02435078545204946</v>
+        <v>0.04186772225964334</v>
       </c>
       <c r="D83">
-        <v>-0.03695493575584639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03408807926248898</v>
+      </c>
+      <c r="E83">
+        <v>-0.02250312319198636</v>
+      </c>
+      <c r="F83">
+        <v>0.04325287415519677</v>
+      </c>
+      <c r="G83">
+        <v>0.02024443007917865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2203336293714385</v>
+        <v>0.2037723345654865</v>
       </c>
       <c r="C85">
-        <v>-0.09974815304306912</v>
+        <v>0.1195884960552098</v>
       </c>
       <c r="D85">
-        <v>0.1151867879128148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1003716035808115</v>
+      </c>
+      <c r="E85">
+        <v>0.005559245326379142</v>
+      </c>
+      <c r="F85">
+        <v>-0.01900941137493834</v>
+      </c>
+      <c r="G85">
+        <v>-0.1287150793291499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01081228692271627</v>
+        <v>0.01116637716106495</v>
       </c>
       <c r="C86">
-        <v>-0.03652521339504122</v>
+        <v>0.03182155827334749</v>
       </c>
       <c r="D86">
-        <v>-0.04625788063884194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06562638687940332</v>
+      </c>
+      <c r="E86">
+        <v>-0.06523332564842567</v>
+      </c>
+      <c r="F86">
+        <v>0.1243845108108554</v>
+      </c>
+      <c r="G86">
+        <v>0.00817458121668211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02303612117283116</v>
+        <v>0.0215785595822771</v>
       </c>
       <c r="C87">
-        <v>-0.02015403541478542</v>
+        <v>0.02175443519111105</v>
       </c>
       <c r="D87">
-        <v>-0.09678292333193948</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08860227400357773</v>
+      </c>
+      <c r="E87">
+        <v>-0.1124263741467326</v>
+      </c>
+      <c r="F87">
+        <v>0.07307428554372443</v>
+      </c>
+      <c r="G87">
+        <v>0.03534655364214075</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1046278404974655</v>
+        <v>0.09160977914911153</v>
       </c>
       <c r="C88">
-        <v>-0.07076082866312058</v>
+        <v>0.0627222999042587</v>
       </c>
       <c r="D88">
-        <v>0.02975011271091355</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.006817633364346673</v>
+      </c>
+      <c r="E88">
+        <v>-0.04255652981433163</v>
+      </c>
+      <c r="F88">
+        <v>0.07140357010242128</v>
+      </c>
+      <c r="G88">
+        <v>0.02730127524395667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1685639668507094</v>
+        <v>0.2220410826238723</v>
       </c>
       <c r="C89">
-        <v>0.3821081533663216</v>
+        <v>-0.3791830892941028</v>
       </c>
       <c r="D89">
-        <v>0.00837258048569452</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.006422669186273871</v>
+      </c>
+      <c r="E89">
+        <v>-0.06238836422459233</v>
+      </c>
+      <c r="F89">
+        <v>0.07643639336162587</v>
+      </c>
+      <c r="G89">
+        <v>0.06124009933547514</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1674418656584714</v>
+        <v>0.2012658884873388</v>
       </c>
       <c r="C90">
-        <v>0.3452905300344557</v>
+        <v>-0.3135078440881687</v>
       </c>
       <c r="D90">
-        <v>0.02939751297072076</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01649915208362892</v>
+      </c>
+      <c r="E90">
+        <v>-0.07115578117586986</v>
+      </c>
+      <c r="F90">
+        <v>0.03909928535706529</v>
+      </c>
+      <c r="G90">
+        <v>0.01075131240135486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1922970352350319</v>
+        <v>0.185876974895162</v>
       </c>
       <c r="C91">
-        <v>-0.118494641606337</v>
+        <v>0.1407811848548949</v>
       </c>
       <c r="D91">
-        <v>0.08414993662596867</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1114961304644199</v>
+      </c>
+      <c r="E91">
+        <v>-0.05966688393375556</v>
+      </c>
+      <c r="F91">
+        <v>0.03015093349380295</v>
+      </c>
+      <c r="G91">
+        <v>-0.06100376906672448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1600595369143317</v>
+        <v>0.1830033909279679</v>
       </c>
       <c r="C92">
-        <v>0.2955314176859923</v>
+        <v>-0.2838376985468956</v>
       </c>
       <c r="D92">
-        <v>0.01881495805318488</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.00677664488235</v>
+      </c>
+      <c r="E92">
+        <v>-0.0714363770669694</v>
+      </c>
+      <c r="F92">
+        <v>0.08041894467489777</v>
+      </c>
+      <c r="G92">
+        <v>0.006582510755086703</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1902983413789632</v>
+        <v>0.225527887036531</v>
       </c>
       <c r="C93">
-        <v>0.3492539860089379</v>
+        <v>-0.319591664733651</v>
       </c>
       <c r="D93">
-        <v>0.02195660997167766</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.003054766571035792</v>
+      </c>
+      <c r="E93">
+        <v>-0.05173710318256747</v>
+      </c>
+      <c r="F93">
+        <v>0.03893421544318872</v>
+      </c>
+      <c r="G93">
+        <v>-0.02796330622636709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3358144379134122</v>
+        <v>0.3415116709175838</v>
       </c>
       <c r="C94">
-        <v>-0.1371567873843</v>
+        <v>0.1825509821564737</v>
       </c>
       <c r="D94">
-        <v>0.4275908003948068</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4938810999160445</v>
+      </c>
+      <c r="E94">
+        <v>-0.0451542408123931</v>
+      </c>
+      <c r="F94">
+        <v>-0.436377598471996</v>
+      </c>
+      <c r="G94">
+        <v>0.3427672368170926</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.113536080980853</v>
+        <v>0.08543105541135959</v>
       </c>
       <c r="C95">
-        <v>-0.07675705900799393</v>
+        <v>0.06845925611127039</v>
       </c>
       <c r="D95">
-        <v>-0.1120915564756542</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1713037482690155</v>
+      </c>
+      <c r="E95">
+        <v>0.09501361577515244</v>
+      </c>
+      <c r="F95">
+        <v>0.2388167870686592</v>
+      </c>
+      <c r="G95">
+        <v>0.8598555292484894</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.19840090429083</v>
+        <v>0.1877974208232786</v>
       </c>
       <c r="C98">
-        <v>-0.0196006666217546</v>
+        <v>0.04511854444975708</v>
       </c>
       <c r="D98">
-        <v>-0.1202778091653658</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.188095951074453</v>
+      </c>
+      <c r="E98">
+        <v>0.1484775247804151</v>
+      </c>
+      <c r="F98">
+        <v>-0.03403113657728611</v>
+      </c>
+      <c r="G98">
+        <v>-0.1009959377150751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009155024069369031</v>
+        <v>0.005776546041230695</v>
       </c>
       <c r="C101">
-        <v>-0.02825847339407998</v>
+        <v>0.02733681768825863</v>
       </c>
       <c r="D101">
-        <v>0.01963237203954054</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01861039050044957</v>
+      </c>
+      <c r="E101">
+        <v>-0.04064525998411393</v>
+      </c>
+      <c r="F101">
+        <v>0.08821690303586634</v>
+      </c>
+      <c r="G101">
+        <v>-0.006950706815532937</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1233351823573454</v>
+        <v>0.1240035819902207</v>
       </c>
       <c r="C102">
-        <v>-0.07064307490156102</v>
+        <v>0.1002728541788911</v>
       </c>
       <c r="D102">
-        <v>0.03067915646430847</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04872706667892838</v>
+      </c>
+      <c r="E102">
+        <v>0.007495299089227969</v>
+      </c>
+      <c r="F102">
+        <v>0.04234988213627155</v>
+      </c>
+      <c r="G102">
+        <v>-0.0240900218190592</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
